--- a/well_test/схема.xlsx
+++ b/well_test/схема.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\macro\economydb\well_test\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>Hydrodynamic Well Test</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Диаметр шайбы</t>
   </si>
   <si>
-    <t>Давление ДИКС</t>
-  </si>
-  <si>
     <t>Температура ДИКТ</t>
   </si>
   <si>
@@ -276,13 +273,89 @@
   </si>
   <si>
     <t>well workover operation</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>dd.mm.yyyy</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Глубинное или устьевое</t>
+  </si>
+  <si>
+    <t>диаметр</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ГДИ (гидродиинамическое исследование скважины) - цель определение текущей продуктивной характеристики скважины и текущего пластового и статичного давления. Так же ГДИ скважину гоняют на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>нескольких</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> режимах.</t>
+    </r>
+  </si>
+  <si>
+    <t>Давление ДИКТ</t>
+  </si>
+  <si>
+    <t>Дата отбора</t>
+  </si>
+  <si>
+    <t>Дата лабораторного исследования</t>
+  </si>
+  <si>
+    <t>Режим работы при стационарном ГДИ. Каждый режим имеет разный диаметр шайбы. Вследсвие подмены шайбы меняеться дебит и все остальные параметры. На основе режимов строиться тренд и угол наклона тренда характеризует продуктивность скважины</t>
+  </si>
+  <si>
+    <t>Шаблонирование</t>
+  </si>
+  <si>
+    <t>ссыл на названия пластов</t>
+  </si>
+  <si>
+    <t>ссыл на справочник характоеров работы пласта</t>
+  </si>
+  <si>
+    <t>ссыл на справочник типов ремонтов</t>
+  </si>
+  <si>
+    <t>ссыл на справочник типов работ</t>
+  </si>
+  <si>
+    <t>интерпритация комплексного геологического исследования скважины (ГИС-К) по контролю за разработкой. В скважину спускают длинную колбасу с приборами, которые проводят разный каротаж (гамма каротаж, нейтрон-нейтронный каротаж, акустический и т.д. После интерпритации каротажа проводят оценку параметров (все уровни иинтервалы глубин). Результатом является вектор параметров интерпритации</t>
+  </si>
+  <si>
+    <t>Гидрохимический анализ воды (ГХА). НА устье сважины отбирают пробу воды и везут в лабораторию, где ее выпаривают и определяют параметры минерализации. На основе параметров минерализации применнают методики и определяют содержание пластовой воды и ее тип. Вектор значений соответственно результаты выпаривания и результаты применения методики</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +385,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -321,7 +403,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -344,11 +426,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,7 +456,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -644,42 +749,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M39"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="B3:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="H3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="L3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -692,20 +806,20 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -722,16 +836,16 @@
         <v>9</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -748,56 +862,68 @@
         <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -805,19 +931,19 @@
         <v>13</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -825,318 +951,336 @@
         <v>14</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H19" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="E20" t="s">
-        <v>83</v>
+      <c r="H20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="H21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
